--- a/Report/Resources/Graphs.xlsx
+++ b/Report/Resources/Graphs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e0c492e01e99698/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05483C03-CAA6-43F5-94E4-C394E0064E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{9CC31EA9-C306-49BD-B6E8-6136C47BA827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C1EF34C-142D-48A0-A8FF-6BC9120FCB15}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="12186" xr2:uid="{C1305032-9BA2-4A2D-8ACD-1A1796CED292}"/>
+    <workbookView xWindow="3510" yWindow="555" windowWidth="17430" windowHeight="15045" xr2:uid="{C1305032-9BA2-4A2D-8ACD-1A1796CED292}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,18 +31,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
-    <t>Number of nodes</t>
+    <t>Nodes</t>
   </si>
   <si>
-    <t>Network Graphs</t>
+    <t>FirstFit</t>
   </si>
   <si>
-    <t>Number of colors 2</t>
+    <t>CBIP</t>
   </si>
   <si>
-    <t>Number of colors 1</t>
+    <t>MyAlgorithm</t>
+  </si>
+  <si>
+    <t>Network Repository Graphs</t>
+  </si>
+  <si>
+    <t>Random Graphs</t>
   </si>
 </sst>
 </file>
@@ -111,37 +117,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -156,13 +132,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Number of colors 1</c:v>
+                  <c:v>FirstFit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -171,8 +147,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -181,6 +157,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -216,19 +193,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>6.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>9.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -236,7 +213,195 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D95-42A6-BBAB-73417BB7C06A}"/>
+              <c16:uniqueId val="{00000000-6991-4EC8-9864-AC36B336F522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBIP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6991-4EC8-9864-AC36B336F522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MyAlgorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6991-4EC8-9864-AC36B336F522}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -248,30 +413,71 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="522851096"/>
-        <c:axId val="522845520"/>
+        <c:axId val="481877400"/>
+        <c:axId val="481879040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="522851096"/>
+        <c:axId val="481877400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -281,8 +487,111 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481879040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="481879040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Colors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -309,615 +618,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522845520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="522845520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="522851096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Network</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Graphs</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Number of colors 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>219</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E17-43A0-B10C-F6F0BF2C20A8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Number of colors 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>219</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E17-43A0-B10C-F6F0BF2C20A8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="r"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="534768024"/>
-        <c:axId val="534764744"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="534768024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> of nodes</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="534764744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="534764744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> of colors</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="534768024"/>
+        <c:crossAx val="481877400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -973,7 +674,669 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Random</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Graphs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FirstFit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$17:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB5B-4EB8-9BFC-85C49DEFED26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBIP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$17:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB5B-4EB8-9BFC-85C49DEFED26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MyAlgorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$17:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB5B-4EB8-9BFC-85C49DEFED26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="479369056"/>
+        <c:axId val="479367088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="479369056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479367088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="479367088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Colors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479369056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1085,7 +1448,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1096,7 +1459,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1112,25 +1475,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1142,7 +1505,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1150,11 +1513,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1186,35 +1549,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1226,22 +1599,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1271,15 +1648,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1289,7 +1664,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1298,7 +1673,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -1308,65 +1719,125 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1379,54 +1850,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1436,8 +1870,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1447,66 +1881,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1515,14 +1890,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1536,27 +1910,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1573,9 +1946,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1588,20 +1961,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1612,7 +1979,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1628,25 +1995,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1658,7 +2025,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1666,11 +2033,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1702,35 +2069,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1742,22 +2119,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1787,15 +2168,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1805,7 +2184,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1814,7 +2193,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -1824,65 +2239,125 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1895,54 +2370,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1952,8 +2390,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1963,66 +2401,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2031,14 +2410,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2052,27 +2430,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2089,9 +2466,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2104,14 +2481,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2121,22 +2492,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>264583</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>103716</xdr:rowOff>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>332316</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>116416</xdr:rowOff>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E677F66C-695E-440C-87D4-D74A058CA977}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14816A3F-0B12-4873-A510-62E958637369}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,22 +2528,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>103716</xdr:rowOff>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>226483</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>116416</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A924FD04-C0B7-4CC0-9C8E-7A9E1463F8A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE3615B-0E3B-49CB-9460-9904F852D0A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,87 +2861,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B787E02-959A-4F59-9AED-4526933DEE98}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.41015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>66</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4.91</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>17.5</v>
+      </c>
+      <c r="D3">
+        <v>17.53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>101</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6.41</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3.08</v>
+      </c>
+      <c r="D4">
+        <v>3.08</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>144</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>9.41</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>32.49</v>
+      </c>
+      <c r="D5">
+        <v>32.49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>204</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>6.36</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>29.05</v>
+      </c>
+      <c r="D6">
+        <v>28.23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>219</v>
       </c>
       <c r="B7">
+        <v>6.23</v>
+      </c>
+      <c r="C7">
+        <v>22.81</v>
+      </c>
+      <c r="D7">
+        <v>23.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>8</v>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>7.89</v>
+      </c>
+      <c r="C17">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="D17">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>14.02</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>21.94</v>
+      </c>
+      <c r="C19">
+        <v>21.93</v>
+      </c>
+      <c r="D19">
+        <v>21.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="B20">
+        <v>36.25</v>
+      </c>
+      <c r="C20">
+        <v>36.409999999999997</v>
+      </c>
+      <c r="D20">
+        <v>34.590000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>400</v>
+      </c>
+      <c r="B21">
+        <v>62.88</v>
+      </c>
+      <c r="C21">
+        <v>63.19</v>
+      </c>
+      <c r="D21">
+        <v>60.16</v>
       </c>
     </row>
   </sheetData>

--- a/Report/Resources/Graphs.xlsx
+++ b/Report/Resources/Graphs.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e0c492e01e99698/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{9CC31EA9-C306-49BD-B6E8-6136C47BA827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C1EF34C-142D-48A0-A8FF-6BC9120FCB15}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{43C76BE6-B9CB-49FA-971D-2458127156A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EB06744-3D36-46C6-94EB-5DAEC7E6D6CF}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="555" windowWidth="17430" windowHeight="15045" xr2:uid="{C1305032-9BA2-4A2D-8ACD-1A1796CED292}"/>
+    <workbookView xWindow="11760" yWindow="495" windowWidth="17430" windowHeight="15045" xr2:uid="{C1305032-9BA2-4A2D-8ACD-1A1796CED292}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$3:$A$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$3:$B$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$3:$C$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$3:$D$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -117,7 +126,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>NETWORK</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> REPOSITORY GRAPHS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -138,7 +207,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -147,8 +216,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -157,7 +226,6 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -232,7 +300,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -241,8 +309,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -251,7 +319,6 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -326,7 +393,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -335,8 +402,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -345,7 +412,6 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -423,6 +489,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -430,7 +510,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -462,7 +542,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -487,8 +567,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -500,7 +580,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -526,6 +606,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -533,7 +627,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -565,7 +659,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -589,9 +683,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -674,7 +768,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -700,7 +794,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -740,13 +834,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Random</a:t>
+              <a:t>Random Graphs</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Graphs</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1085,6 +1174,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1148,7 +1251,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1162,7 +1265,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1188,6 +1291,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1293,7 +1410,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1448,7 +1565,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1459,7 +1576,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1475,25 +1592,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1505,7 +1622,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1513,11 +1630,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1549,45 +1666,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1599,26 +1706,22 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1648,13 +1751,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1664,7 +1769,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1673,135 +1778,205 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1811,77 +1986,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1890,13 +1995,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1910,26 +2016,27 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1946,9 +2053,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1961,8 +2068,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2864,7 +2977,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
